--- a/top/Qijia/齐家接口数据库设计.xlsx
+++ b/top/Qijia/齐家接口数据库设计.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +390,18 @@
   </si>
   <si>
     <t>varchar(250)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(250)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1391,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1448,6 +1460,17 @@
         <v>89</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/top/Qijia/齐家接口数据库设计.xlsx
+++ b/top/Qijia/齐家接口数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="9120" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="9120" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jia_Shop(齐家店铺表)" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>｛"名称":"实木地板","规格"："100*100"｝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,6 +398,37 @@
   </si>
   <si>
     <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UglyTplHtml</t>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期模板内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{名称:实木地板{,}规格：100*100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{text1:实木地板{,}text2：萨分散}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板文字(标签不确定)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -815,7 +842,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -827,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -854,10 +881,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -865,10 +892,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -896,7 +923,21 @@
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +967,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -948,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -959,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -985,14 +1026,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
   </cols>
@@ -1002,7 +1044,7 @@
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
@@ -1065,13 +1107,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1079,10 +1121,21 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1165,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -1131,7 +1184,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -1225,7 +1278,7 @@
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
@@ -1255,10 +1308,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -1287,13 +1340,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1323,7 +1376,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -1353,21 +1406,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1375,24 +1428,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1405,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1418,21 +1471,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1440,35 +1493,35 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
